--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>538836.4254468088</v>
+        <v>599671.900358509</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1028,16 +1028,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.014288877659</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>84.41978777916114</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>63.88882306452209</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1299,61 +1299,61 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>91.72166227029953</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>65.35508693567184</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325235</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.06754378872183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>201.3302879382944</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>190.241644097956</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>65.29405973828533</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325235</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>10.46499054460276</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>89.30725745073134</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>353.5759586385877</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>155.4252300328224</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250886</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>101.6257152931845</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>216.6993815150878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>290.126288427413</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>314.940155422402</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250886</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>129.6781866221426</v>
+        <v>157.0044783406142</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>122.2463803451702</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>172.8861799252949</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>16.77840076253211</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>34.5191383136863</v>
       </c>
       <c r="U26" t="n">
-        <v>97.1332071185452</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2690,7 +2690,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>122.3623168480191</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>311.5503547663019</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>26.94362918249707</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.91544265059211</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>1.264003285459224</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>273.7647848052864</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>132.3583106441421</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>171.6868869030086</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>156.7617038337237</v>
       </c>
       <c r="F35" t="n">
-        <v>38.34862401946383</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>4.440065804380572</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>293.413425663514</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>29.43357108566505</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>51.83903723181706</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>199.3355115125533</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>128.7282531589278</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>150.5540262346244</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>122.349362860223</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>145.1505371240054</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.0978190620145</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4372,10 +4372,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,22 +4436,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4515,22 +4515,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4652,7 +4652,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4676,13 +4676,13 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W6" t="n">
         <v>19.28114311021272</v>
@@ -4764,7 +4764,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984127</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984127</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984127</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984127</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543127</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271062</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066563</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066563</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066563</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066563</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066563</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066563</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984127</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4886,46 +4886,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363992</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252816</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>726.1056462496664</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>497.8820279860554</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>262.7299197543127</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1435.441956461044</v>
+        <v>975.5408384191585</v>
       </c>
       <c r="C11" t="n">
-        <v>1435.441956461044</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>1077.176257854294</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>691.3880052560494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5056,7 +5056,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U11" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V11" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W11" t="n">
-        <v>2212.181128500978</v>
+        <v>2125.745768720172</v>
       </c>
       <c r="X11" t="n">
-        <v>2212.181128500978</v>
+        <v>1752.280010459092</v>
       </c>
       <c r="Y11" t="n">
-        <v>1822.041796525166</v>
+        <v>1362.14067848328</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C13" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D13" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E13" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F13" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L13" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="W13" t="n">
-        <v>409.2948950230958</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="X13" t="n">
-        <v>409.2948950230958</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="Y13" t="n">
-        <v>409.2948950230958</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>882.8926947117852</v>
+        <v>1307.111989013773</v>
       </c>
       <c r="C14" t="n">
-        <v>882.8926947117852</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
         <v>882.8926947117852</v>
@@ -5269,22 +5269,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5293,13 +5293,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
         <v>2642.120401548716</v>
@@ -5308,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W14" t="n">
-        <v>1838.661061815299</v>
+        <v>2070.717079250665</v>
       </c>
       <c r="X14" t="n">
-        <v>1465.195303554219</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y14" t="n">
-        <v>1075.055971578407</v>
+        <v>1307.111989013773</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C16" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D16" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>211.4036268380756</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>64.51367934016523</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L16" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T16" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U16" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V16" t="n">
-        <v>500.8207968750362</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W16" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X16" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.4036268380756</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1309.714918859356</v>
+        <v>1372.955922978508</v>
       </c>
       <c r="C17" t="n">
-        <v>952.5674858910851</v>
+        <v>1372.955922978508</v>
       </c>
       <c r="D17" t="n">
-        <v>952.5674858910851</v>
+        <v>1014.690224371758</v>
       </c>
       <c r="E17" t="n">
-        <v>952.5674858910851</v>
+        <v>628.9019717735134</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>628.9019717735134</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>210.9381636717003</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5530,37 +5530,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.55576304263</v>
       </c>
       <c r="X17" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.55576304263</v>
       </c>
       <c r="Y17" t="n">
-        <v>1309.714918859356</v>
+        <v>1759.55576304263</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598712</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L19" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T19" t="n">
-        <v>500.8207968750362</v>
+        <v>625.4767465365513</v>
       </c>
       <c r="U19" t="n">
-        <v>500.8207968750362</v>
+        <v>625.4767465365513</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1662.48357412947</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C20" t="n">
-        <v>1662.48357412947</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D20" t="n">
-        <v>1304.217875522719</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E20" t="n">
-        <v>918.4296229244749</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W20" t="n">
-        <v>1662.48357412947</v>
+        <v>1485.892406545186</v>
       </c>
       <c r="X20" t="n">
-        <v>1662.48357412947</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y20" t="n">
-        <v>1662.48357412947</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C22" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V22" t="n">
-        <v>369.8327295799424</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W22" t="n">
-        <v>369.8327295799424</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X22" t="n">
-        <v>369.8327295799424</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1584.923258067584</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.960741127172</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D23" t="n">
-        <v>857.6950425204218</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2522.516586043177</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U23" t="n">
-        <v>2268.754800681269</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>1937.691913337698</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W23" t="n">
-        <v>1584.923258067584</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X23" t="n">
-        <v>1584.923258067584</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y23" t="n">
-        <v>1584.923258067584</v>
+        <v>1503.604727733592</v>
       </c>
     </row>
     <row r="24">
@@ -6050,13 +6050,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6071,28 +6071,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005474</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X25" t="n">
-        <v>245.45494510253</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>920.3919303875161</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C26" t="n">
-        <v>920.3919303875161</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D26" t="n">
-        <v>920.3919303875161</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E26" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6256,22 +6256,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862886</v>
+        <v>2431.075097384415</v>
       </c>
       <c r="U26" t="n">
-        <v>2367.828563238093</v>
+        <v>2431.075097384415</v>
       </c>
       <c r="V26" t="n">
-        <v>2036.765675894522</v>
+        <v>2100.012210040844</v>
       </c>
       <c r="W26" t="n">
-        <v>1683.997020624408</v>
+        <v>1747.24355477073</v>
       </c>
       <c r="X26" t="n">
-        <v>1310.531262363328</v>
+        <v>1373.77779650965</v>
       </c>
       <c r="Y26" t="n">
-        <v>920.3919303875161</v>
+        <v>983.6384645338385</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6317,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.5412816668484</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>177.5412816668484</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D28" t="n">
-        <v>177.5412816668484</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E28" t="n">
-        <v>177.5412816668484</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>359.1897464970881</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>777.3160057778007</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C29" t="n">
-        <v>408.353488837389</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="D29" t="n">
-        <v>408.353488837389</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>408.353488837389</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>408.353488837389</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>408.353488837389</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>81.15876887339181</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6466,49 +6466,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.921096014692</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X29" t="n">
-        <v>1167.455337753612</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y29" t="n">
-        <v>777.3160057778007</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036446</v>
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
         <v>200.8329293182748</v>
@@ -6660,13 +6660,13 @@
         <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694737</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694737</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.9192350259436</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1443.489535627676</v>
+        <v>987.3573795552941</v>
       </c>
       <c r="C32" t="n">
-        <v>1074.527018687265</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D32" t="n">
-        <v>716.2613200805142</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E32" t="n">
-        <v>330.47306748227</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F32" t="n">
-        <v>330.47306748227</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V32" t="n">
-        <v>2169.72394915887</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W32" t="n">
-        <v>1816.955293888756</v>
+        <v>1747.422977880496</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.489535627676</v>
+        <v>1373.957219619416</v>
       </c>
       <c r="Y32" t="n">
-        <v>1443.489535627676</v>
+        <v>1373.957219619416</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.5382038240417</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C34" t="n">
-        <v>149.5382038240417</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D34" t="n">
-        <v>149.5382038240417</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5382038240417</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036446</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5382038240417</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X34" t="n">
-        <v>149.5382038240417</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.5382038240417</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1349.56916835588</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="C35" t="n">
-        <v>1349.56916835588</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="D35" t="n">
-        <v>991.3034697491294</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="E35" t="n">
-        <v>991.3034697491294</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V35" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>2113.174258592771</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X35" t="n">
-        <v>1739.708500331692</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y35" t="n">
-        <v>1349.56916835588</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7028,7 +7028,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>541.9956044222747</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C37" t="n">
-        <v>373.0594214943678</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>723.6440692525144</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>723.6440692525144</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>723.6440692525144</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X37" t="n">
-        <v>723.6440692525144</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y37" t="n">
-        <v>723.6440692525144</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1610.120910258947</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C38" t="n">
-        <v>1241.158393318536</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117852</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2667.418211133712</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2336.355323790141</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>1983.586668520027</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X38" t="n">
-        <v>1610.120910258947</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y38" t="n">
-        <v>1610.120910258947</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7317,10 +7317,10 @@
         <v>149.5382038240415</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1108.365917331524</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C41" t="n">
-        <v>739.4034003911122</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D41" t="n">
-        <v>381.1377017843616</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7450,13 +7450,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X41" t="n">
-        <v>1108.365917331524</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y41" t="n">
-        <v>1108.365917331524</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.7922583306645</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>598.1004456620627</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>370.7922583306645</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>370.7922583306645</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>370.7922583306645</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>370.7922583306645</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>370.7922583306645</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.7922583306645</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>927.7879015331887</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C44" t="n">
-        <v>558.825384592777</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D44" t="n">
-        <v>200.5596859860265</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="E44" t="n">
-        <v>200.5596859860265</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>200.5596859860265</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.527073573122</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X44" t="n">
-        <v>1704.527073573122</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y44" t="n">
-        <v>1314.38774159731</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>519.9493689922781</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C46" t="n">
-        <v>519.9493689922781</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D46" t="n">
-        <v>369.8327295799424</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799424</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7845,13 +7845,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>519.9493689922781</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8780,10 +8780,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783521</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747161</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142011</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951785</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10676,10 +10676,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10828,10 +10828,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,7 +22552,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22916,16 +22916,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.26901108812089</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -23004,10 +23004,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.2884486374761</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>301.8181508768924</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23150,10 +23150,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>136.2759056302995</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>273.551229500708</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>341.5209588060396</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.7644363932155</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
@@ -23472,19 +23472,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380034</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>192.4921975655245</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>299.9788320327222</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8448117144482</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
@@ -23706,16 +23706,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>162.8303858730966</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>11.69693313241982</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>168.4975427315347</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
@@ -23943,19 +23943,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>123.4093901648998</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>35.43826180874018</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>116.7497573142984</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>54.790945256067</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>122.4594567016854</v>
+        <v>95.13316498321382</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>260.4874613183104</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>43.56214043236292</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>235.3592425612959</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>181.9291820439715</v>
       </c>
       <c r="U26" t="n">
-        <v>154.0909603897441</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.05873117491215</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>43.13268685438106</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>124.9876870623642</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.9165375313452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>285.2589950511318</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>140.0193852155086</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>216.8826580732709</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>50.78177823929082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>46.89776644908619</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>225.1686662385381</v>
       </c>
       <c r="F35" t="n">
-        <v>368.5274217222476</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>59.30821556748147</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>281.8418084375971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>88.5169444087478</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>221.7905964226242</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>330.0913328404447</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>170.3955891659157</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25836,7 +25836,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>83.41728579109113</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>68.03062711747043</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>259.5810072120388</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>268.6336328967895</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>44.71625607744321</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>80.42517927457646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473736.5515495129</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="14">
@@ -26316,10 +26316,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
+        <v>132928.5380250659</v>
+      </c>
+      <c r="D2" t="n">
         <v>132928.538025066</v>
-      </c>
-      <c r="D2" t="n">
-        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>231322.0880126061</v>
@@ -26331,31 +26331,31 @@
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="O2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="P2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>231322.0880126061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.1740429963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="H4" t="n">
         <v>27086.83710496504</v>
@@ -26475,25 +26475,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33622.44110290322</v>
+        <v>-22626.23154486681</v>
       </c>
       <c r="C6" t="n">
-        <v>47146.99042864457</v>
+        <v>58143.19998668096</v>
       </c>
       <c r="D6" t="n">
-        <v>47146.99042864454</v>
+        <v>58143.19998668099</v>
       </c>
       <c r="E6" t="n">
-        <v>-283910.8149445837</v>
+        <v>-278449.2425733467</v>
       </c>
       <c r="F6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="G6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696496</v>
       </c>
       <c r="H6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="I6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="J6" t="n">
-        <v>85875.41649930619</v>
+        <v>91336.98887054347</v>
       </c>
       <c r="K6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="L6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="M6" t="n">
-        <v>40961.99842435426</v>
+        <v>46423.57079559164</v>
       </c>
       <c r="N6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="O6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="P6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="G3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="H3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="I3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26795,25 +26795,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>433.2729838768968</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>433.2729838768967</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768968</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31767,34 +31767,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31931,28 +31931,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32004,34 +32004,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32168,28 +32168,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32241,34 +32241,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32405,28 +32405,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735647</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M19" t="n">
         <v>146.3614835535656</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,10 +37156,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37548,10 +37548,10 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
